--- a/db/dummydata/ht_local_charges.xlsx
+++ b/db/dummydata/ht_local_charges.xlsx
@@ -34,7 +34,7 @@
     <t>DESTINATION</t>
   </si>
   <si>
-    <t>SERVICE LEVEL</t>
+    <t>SERVICE_LEVEL</t>
   </si>
   <si>
     <t>FEE</t>
@@ -94,34 +94,25 @@
     <t>RANGE_MAX</t>
   </si>
   <si>
-    <t>Low Sulphur Fuel Surcharge</t>
+    <t>Advanced Manifest Filing</t>
   </si>
   <si>
     <t>ocean</t>
   </si>
   <si>
-    <t>Advanced Manifest Filing</t>
+    <t>Low Sulphur Fuel Surcharge</t>
   </si>
   <si>
-    <t>LSFS</t>
+    <t>AMF</t>
   </si>
   <si>
     <t>fcl_20</t>
   </si>
   <si>
-    <t>AMF</t>
-  </si>
-  <si>
-    <t>export</t>
+    <t>import</t>
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>import</t>
-  </si>
-  <si>
-    <t>PER_CONTAINER</t>
   </si>
   <si>
     <t>PER_SHIPMENT</t>
@@ -131,6 +122,15 @@
   </si>
   <si>
     <t>fcl_40_hq</t>
+  </si>
+  <si>
+    <t>LSFS</t>
+  </si>
+  <si>
+    <t>export</t>
+  </si>
+  <si>
+    <t>PER_CONTAINER</t>
   </si>
   <si>
     <t>Quay Dues</t>
@@ -241,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -251,6 +251,9 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -259,31 +262,31 @@
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
@@ -375,7 +378,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -435,43 +438,43 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>43101.0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>43464.0</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="6" t="s">
-        <v>23</v>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>27</v>
       </c>
       <c r="I2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="K2" s="9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M2" s="9"/>
       <c r="R2" s="9">
@@ -479,34 +482,34 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>43101.0</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>43464.0</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="6" t="s">
-        <v>23</v>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="K3" s="9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M3" s="9"/>
       <c r="R3" s="9">
@@ -514,34 +517,34 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>43101.0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>43464.0</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="6" t="s">
-        <v>23</v>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>32</v>
       </c>
       <c r="M4" s="9"/>
       <c r="R4" s="9">
@@ -550,10 +553,10 @@
       <c r="S4" s="9"/>
     </row>
     <row r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>43101.0</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>43464.0</v>
       </c>
       <c r="C5" s="9"/>
@@ -571,7 +574,7 @@
         <v>38</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>39</v>
@@ -588,10 +591,10 @@
       <c r="S5" s="9"/>
     </row>
     <row r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>43101.0</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>43464.0</v>
       </c>
       <c r="C6" s="9"/>
@@ -609,15 +612,15 @@
         <v>38</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="12"/>
+      <c r="L6" s="15"/>
       <c r="M6" s="9"/>
       <c r="Q6" s="9">
         <v>2.0</v>
@@ -626,10 +629,10 @@
       <c r="S6" s="9"/>
     </row>
     <row r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>43101.0</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="6">
         <v>43464.0</v>
       </c>
       <c r="C7" s="9"/>
@@ -647,13 +650,13 @@
         <v>38</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>39</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -664,10 +667,10 @@
       <c r="S7" s="9"/>
     </row>
     <row r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>43101.0</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="6">
         <v>43464.0</v>
       </c>
       <c r="C8" s="9"/>
@@ -685,7 +688,7 @@
         <v>38</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>39</v>
@@ -703,10 +706,10 @@
       <c r="S8" s="9"/>
     </row>
     <row r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>43101.0</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="6">
         <v>43464.0</v>
       </c>
       <c r="C9" s="9"/>
@@ -724,7 +727,7 @@
         <v>38</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>39</v>
@@ -748,16 +751,16 @@
       <c r="E10" s="11"/>
       <c r="F10" s="9"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
-      <c r="Q10" s="15"/>
+      <c r="Q10" s="16"/>
       <c r="R10" s="9"/>
       <c r="S10" s="9"/>
     </row>
@@ -854,15 +857,15 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
       <c r="Q16" s="2"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
     </row>
     <row r="17">
       <c r="A17" s="9"/>
@@ -873,15 +876,15 @@
       <c r="F17" s="9"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
       <c r="N17" s="14"/>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
-      <c r="Q17" s="15"/>
+      <c r="Q17" s="16"/>
     </row>
     <row r="18">
       <c r="A18" s="9"/>
@@ -1219,14 +1222,14 @@
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
       <c r="I38" s="9"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
       <c r="N38" s="14"/>
       <c r="O38" s="14"/>
       <c r="P38" s="14"/>
-      <c r="Q38" s="15"/>
+      <c r="Q38" s="16"/>
     </row>
     <row r="39">
       <c r="A39" s="9"/>
@@ -1271,7 +1274,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1331,43 +1334,43 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>43101.0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>43464.0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
-        <v>25</v>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>27</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="M2" s="9"/>
       <c r="P2" s="9">
@@ -1376,34 +1379,34 @@
       <c r="R2" s="9"/>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>43101.0</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>43464.0</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
-        <v>25</v>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="J3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="M3" s="9"/>
       <c r="P3" s="9">
@@ -1412,34 +1415,34 @@
       <c r="R3" s="9"/>
     </row>
     <row r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>43101.0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>43464.0</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
-        <v>25</v>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="J4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="M4" s="9"/>
       <c r="P4" s="9">
@@ -1527,16 +1530,16 @@
       <c r="E9" s="11"/>
       <c r="F9" s="9"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
-      <c r="Q9" s="15"/>
+      <c r="Q9" s="16"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
     </row>
@@ -1644,15 +1647,15 @@
       <c r="F16" s="9"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
-      <c r="Q16" s="15"/>
+      <c r="Q16" s="16"/>
     </row>
     <row r="17">
       <c r="A17" s="9"/>
@@ -1990,14 +1993,14 @@
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
       <c r="N37" s="14"/>
       <c r="O37" s="14"/>
       <c r="P37" s="14"/>
-      <c r="Q37" s="15"/>
+      <c r="Q37" s="16"/>
     </row>
     <row r="38">
       <c r="A38" s="9"/>
@@ -2042,7 +2045,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -2102,43 +2105,43 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>43101.0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>43464.0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
-        <v>25</v>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>27</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="M2" s="9"/>
       <c r="P2" s="9">
@@ -2147,34 +2150,34 @@
       <c r="R2" s="9"/>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>43101.0</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>43464.0</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
-        <v>25</v>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="J3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="M3" s="9"/>
       <c r="P3" s="9">
@@ -2183,34 +2186,34 @@
       <c r="R3" s="9"/>
     </row>
     <row r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>43101.0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>43464.0</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
-        <v>25</v>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="J4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="M4" s="9"/>
       <c r="P4" s="9">
@@ -2298,16 +2301,16 @@
       <c r="E9" s="11"/>
       <c r="F9" s="9"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
-      <c r="Q9" s="15"/>
+      <c r="Q9" s="16"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
     </row>
@@ -2415,15 +2418,15 @@
       <c r="F16" s="9"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
-      <c r="Q16" s="15"/>
+      <c r="Q16" s="16"/>
     </row>
     <row r="17">
       <c r="A17" s="9"/>
@@ -2761,14 +2764,14 @@
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
       <c r="N37" s="14"/>
       <c r="O37" s="14"/>
       <c r="P37" s="14"/>
-      <c r="Q37" s="15"/>
+      <c r="Q37" s="16"/>
     </row>
     <row r="38">
       <c r="A38" s="9"/>
@@ -2813,7 +2816,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -2873,43 +2876,43 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>43101.0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>43464.0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
-        <v>25</v>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>27</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="M2" s="9"/>
       <c r="P2" s="9">
@@ -2918,34 +2921,34 @@
       <c r="R2" s="9"/>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>43101.0</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>43464.0</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
-        <v>25</v>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="J3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="M3" s="9"/>
       <c r="P3" s="9">
@@ -2954,34 +2957,34 @@
       <c r="R3" s="9"/>
     </row>
     <row r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>43101.0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>43464.0</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
-        <v>25</v>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="J4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="M4" s="9"/>
       <c r="P4" s="9">
@@ -3069,16 +3072,16 @@
       <c r="E9" s="11"/>
       <c r="F9" s="9"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
-      <c r="Q9" s="15"/>
+      <c r="Q9" s="16"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
     </row>
@@ -3186,15 +3189,15 @@
       <c r="F16" s="9"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
-      <c r="Q16" s="15"/>
+      <c r="Q16" s="16"/>
     </row>
     <row r="17">
       <c r="A17" s="9"/>
@@ -3532,14 +3535,14 @@
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
       <c r="N37" s="14"/>
       <c r="O37" s="14"/>
       <c r="P37" s="14"/>
-      <c r="Q37" s="15"/>
+      <c r="Q37" s="16"/>
     </row>
     <row r="38">
       <c r="A38" s="9"/>
@@ -3584,7 +3587,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -3644,43 +3647,43 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>43101.0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>43464.0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
-        <v>25</v>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>27</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="M2" s="9"/>
       <c r="P2" s="9">
@@ -3689,34 +3692,34 @@
       <c r="R2" s="9"/>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>43101.0</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>43464.0</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
-        <v>25</v>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="J3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="M3" s="9"/>
       <c r="P3" s="9">
@@ -3725,34 +3728,34 @@
       <c r="R3" s="9"/>
     </row>
     <row r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>43101.0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>43464.0</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
-        <v>25</v>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="J4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="M4" s="9"/>
       <c r="P4" s="9">
@@ -3840,16 +3843,16 @@
       <c r="E9" s="11"/>
       <c r="F9" s="9"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
-      <c r="Q9" s="15"/>
+      <c r="Q9" s="16"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
     </row>
@@ -3957,15 +3960,15 @@
       <c r="F16" s="9"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
-      <c r="Q16" s="15"/>
+      <c r="Q16" s="16"/>
     </row>
     <row r="17">
       <c r="A17" s="9"/>
@@ -4303,14 +4306,14 @@
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
       <c r="N37" s="14"/>
       <c r="O37" s="14"/>
       <c r="P37" s="14"/>
-      <c r="Q37" s="15"/>
+      <c r="Q37" s="16"/>
     </row>
     <row r="38">
       <c r="A38" s="9"/>
@@ -4355,7 +4358,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -4415,43 +4418,43 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>43101.0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>43464.0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
-        <v>25</v>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>27</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="M2" s="9"/>
       <c r="P2" s="9">
@@ -4460,34 +4463,34 @@
       <c r="R2" s="9"/>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>43101.0</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>43464.0</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
-        <v>25</v>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="J3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="M3" s="9"/>
       <c r="P3" s="9">
@@ -4496,34 +4499,34 @@
       <c r="R3" s="9"/>
     </row>
     <row r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>43101.0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>43464.0</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
-        <v>25</v>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="J4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="M4" s="9"/>
       <c r="P4" s="9">
@@ -4611,16 +4614,16 @@
       <c r="E9" s="11"/>
       <c r="F9" s="9"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
-      <c r="Q9" s="15"/>
+      <c r="Q9" s="16"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
     </row>
@@ -4728,15 +4731,15 @@
       <c r="F16" s="9"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
-      <c r="Q16" s="15"/>
+      <c r="Q16" s="16"/>
     </row>
     <row r="17">
       <c r="A17" s="9"/>
@@ -5074,14 +5077,14 @@
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
       <c r="N37" s="14"/>
       <c r="O37" s="14"/>
       <c r="P37" s="14"/>
-      <c r="Q37" s="15"/>
+      <c r="Q37" s="16"/>
     </row>
     <row r="38">
       <c r="A38" s="9"/>
@@ -5126,7 +5129,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -5186,43 +5189,43 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>43101.0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>43464.0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
-        <v>23</v>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>27</v>
       </c>
       <c r="I2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="K2" s="9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M2" s="9"/>
       <c r="R2" s="9">
@@ -5230,34 +5233,34 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>43101.0</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>43464.0</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
-        <v>23</v>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="K3" s="9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M3" s="9"/>
       <c r="R3" s="9">
@@ -5265,34 +5268,34 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>43101.0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>43464.0</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
-        <v>23</v>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>32</v>
       </c>
       <c r="M4" s="9"/>
       <c r="R4" s="9">
@@ -5308,16 +5311,16 @@
       <c r="E5" s="11"/>
       <c r="F5" s="9"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
-      <c r="Q5" s="15"/>
+      <c r="Q5" s="16"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
     </row>
@@ -5425,15 +5428,15 @@
       <c r="F12" s="9"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
-      <c r="Q12" s="15"/>
+      <c r="Q12" s="16"/>
     </row>
     <row r="13">
       <c r="A13" s="9"/>
@@ -5771,14 +5774,14 @@
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
       <c r="I33" s="9"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
       <c r="N33" s="14"/>
       <c r="O33" s="14"/>
       <c r="P33" s="14"/>
-      <c r="Q33" s="15"/>
+      <c r="Q33" s="16"/>
     </row>
     <row r="34">
       <c r="A34" s="9"/>
@@ -5823,7 +5826,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -5883,43 +5886,43 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>43101.0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>43464.0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
-        <v>25</v>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>27</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="M2" s="9"/>
       <c r="P2" s="9">
@@ -5928,34 +5931,34 @@
       <c r="R2" s="9"/>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>43101.0</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>43464.0</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
-        <v>25</v>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="J3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="M3" s="9"/>
       <c r="P3" s="9">
@@ -5964,34 +5967,34 @@
       <c r="R3" s="9"/>
     </row>
     <row r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>43101.0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>43464.0</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
-        <v>25</v>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="J4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="M4" s="9"/>
       <c r="P4" s="9">
@@ -6079,16 +6082,16 @@
       <c r="E9" s="11"/>
       <c r="F9" s="9"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
-      <c r="Q9" s="15"/>
+      <c r="Q9" s="16"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
     </row>
@@ -6196,15 +6199,15 @@
       <c r="F16" s="9"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
-      <c r="Q16" s="15"/>
+      <c r="Q16" s="16"/>
     </row>
     <row r="17">
       <c r="A17" s="9"/>
@@ -6542,14 +6545,14 @@
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
       <c r="N37" s="14"/>
       <c r="O37" s="14"/>
       <c r="P37" s="14"/>
-      <c r="Q37" s="15"/>
+      <c r="Q37" s="16"/>
     </row>
     <row r="38">
       <c r="A38" s="9"/>
@@ -6594,7 +6597,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -6654,43 +6657,43 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>43101.0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>43464.0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
-        <v>25</v>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>27</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="M2" s="9"/>
       <c r="P2" s="9">
@@ -6699,34 +6702,34 @@
       <c r="R2" s="9"/>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>43101.0</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>43464.0</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
-        <v>25</v>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="J3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="M3" s="9"/>
       <c r="P3" s="9">
@@ -6735,34 +6738,34 @@
       <c r="R3" s="9"/>
     </row>
     <row r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>43101.0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>43464.0</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
-        <v>25</v>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="J4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="M4" s="9"/>
       <c r="P4" s="9">
@@ -6850,16 +6853,16 @@
       <c r="E9" s="11"/>
       <c r="F9" s="9"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
-      <c r="Q9" s="15"/>
+      <c r="Q9" s="16"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
     </row>
@@ -6967,15 +6970,15 @@
       <c r="F16" s="9"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
-      <c r="Q16" s="15"/>
+      <c r="Q16" s="16"/>
     </row>
     <row r="17">
       <c r="A17" s="9"/>
@@ -7313,14 +7316,14 @@
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
       <c r="N37" s="14"/>
       <c r="O37" s="14"/>
       <c r="P37" s="14"/>
-      <c r="Q37" s="15"/>
+      <c r="Q37" s="16"/>
     </row>
     <row r="38">
       <c r="A38" s="9"/>
@@ -7365,7 +7368,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -7425,43 +7428,43 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>43101.0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>43464.0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
-        <v>25</v>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>27</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="M2" s="9"/>
       <c r="P2" s="9">
@@ -7470,34 +7473,34 @@
       <c r="R2" s="9"/>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>43101.0</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>43464.0</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
-        <v>25</v>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="J3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="M3" s="9"/>
       <c r="P3" s="9">
@@ -7506,34 +7509,34 @@
       <c r="R3" s="9"/>
     </row>
     <row r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>43101.0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>43464.0</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
-        <v>25</v>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="J4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="M4" s="9"/>
       <c r="P4" s="9">
@@ -7621,16 +7624,16 @@
       <c r="E9" s="11"/>
       <c r="F9" s="9"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
-      <c r="Q9" s="15"/>
+      <c r="Q9" s="16"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
     </row>
@@ -7738,15 +7741,15 @@
       <c r="F16" s="9"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
-      <c r="Q16" s="15"/>
+      <c r="Q16" s="16"/>
     </row>
     <row r="17">
       <c r="A17" s="9"/>
@@ -8084,14 +8087,14 @@
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
       <c r="N37" s="14"/>
       <c r="O37" s="14"/>
       <c r="P37" s="14"/>
-      <c r="Q37" s="15"/>
+      <c r="Q37" s="16"/>
     </row>
     <row r="38">
       <c r="A38" s="9"/>
@@ -8136,7 +8139,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -8196,43 +8199,43 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>43101.0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>43464.0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
-        <v>25</v>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>27</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="M2" s="9"/>
       <c r="P2" s="9">
@@ -8241,34 +8244,34 @@
       <c r="R2" s="9"/>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>43101.0</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>43464.0</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
-        <v>25</v>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="J3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="M3" s="9"/>
       <c r="P3" s="9">
@@ -8277,34 +8280,34 @@
       <c r="R3" s="9"/>
     </row>
     <row r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>43101.0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>43464.0</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
-        <v>25</v>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="J4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="M4" s="9"/>
       <c r="P4" s="9">
@@ -8392,16 +8395,16 @@
       <c r="E9" s="11"/>
       <c r="F9" s="9"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
-      <c r="Q9" s="15"/>
+      <c r="Q9" s="16"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
     </row>
@@ -8509,15 +8512,15 @@
       <c r="F16" s="9"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
-      <c r="Q16" s="15"/>
+      <c r="Q16" s="16"/>
     </row>
     <row r="17">
       <c r="A17" s="9"/>
@@ -8855,14 +8858,14 @@
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
       <c r="N37" s="14"/>
       <c r="O37" s="14"/>
       <c r="P37" s="14"/>
-      <c r="Q37" s="15"/>
+      <c r="Q37" s="16"/>
     </row>
     <row r="38">
       <c r="A38" s="9"/>
@@ -8907,7 +8910,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -8967,43 +8970,43 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>43101.0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>43464.0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
-        <v>25</v>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>27</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="M2" s="9"/>
       <c r="P2" s="9">
@@ -9012,34 +9015,34 @@
       <c r="R2" s="9"/>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>43101.0</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>43464.0</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
-        <v>25</v>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="J3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="M3" s="9"/>
       <c r="P3" s="9">
@@ -9048,34 +9051,34 @@
       <c r="R3" s="9"/>
     </row>
     <row r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>43101.0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>43464.0</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
-        <v>25</v>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="J4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="M4" s="9"/>
       <c r="P4" s="9">
@@ -9163,16 +9166,16 @@
       <c r="E9" s="11"/>
       <c r="F9" s="9"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
-      <c r="Q9" s="15"/>
+      <c r="Q9" s="16"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
     </row>
@@ -9280,15 +9283,15 @@
       <c r="F16" s="9"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
-      <c r="Q16" s="15"/>
+      <c r="Q16" s="16"/>
     </row>
     <row r="17">
       <c r="A17" s="9"/>
@@ -9626,14 +9629,14 @@
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
       <c r="N37" s="14"/>
       <c r="O37" s="14"/>
       <c r="P37" s="14"/>
-      <c r="Q37" s="15"/>
+      <c r="Q37" s="16"/>
     </row>
     <row r="38">
       <c r="A38" s="9"/>
@@ -9678,7 +9681,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -9738,43 +9741,43 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>43101.0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>43464.0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
-        <v>25</v>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>27</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="M2" s="9"/>
       <c r="P2" s="9">
@@ -9783,34 +9786,34 @@
       <c r="R2" s="9"/>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>43101.0</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>43464.0</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
-        <v>25</v>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="J3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="M3" s="9"/>
       <c r="P3" s="9">
@@ -9819,34 +9822,34 @@
       <c r="R3" s="9"/>
     </row>
     <row r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>43101.0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>43464.0</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
-        <v>25</v>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="J4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="M4" s="9"/>
       <c r="P4" s="9">
@@ -9934,16 +9937,16 @@
       <c r="E9" s="11"/>
       <c r="F9" s="9"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
-      <c r="Q9" s="15"/>
+      <c r="Q9" s="16"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
     </row>
@@ -10051,15 +10054,15 @@
       <c r="F16" s="9"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
-      <c r="Q16" s="15"/>
+      <c r="Q16" s="16"/>
     </row>
     <row r="17">
       <c r="A17" s="9"/>
@@ -10397,14 +10400,14 @@
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
       <c r="N37" s="14"/>
       <c r="O37" s="14"/>
       <c r="P37" s="14"/>
-      <c r="Q37" s="15"/>
+      <c r="Q37" s="16"/>
     </row>
     <row r="38">
       <c r="A38" s="9"/>
